--- a/src/main/webapp/cfg/excel/emptemp.xlsx
+++ b/src/main/webapp/cfg/excel/emptemp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bouga\Documents\GitHub\QData\src\main\webapp\cfg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1588BE50-D3A3-4850-A41F-F72F74AFCF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD33B75F-B870-410A-8936-741BBE54879B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Employé</t>
-  </si>
-  <si>
-    <t>Moyenne attente(mm:ss)</t>
-  </si>
-  <si>
-    <t>Moyenne traitement (mm:ss)</t>
   </si>
   <si>
     <t>C20</t>
@@ -134,6 +128,12 @@
   </si>
   <si>
     <t>${service.perTl1Pt + "%"}</t>
+  </si>
+  <si>
+    <t>Moyenne attente(seconde)</t>
+  </si>
+  <si>
+    <t>Moyenne traitement (seconde)</t>
   </si>
 </sst>
 </file>
@@ -472,25 +472,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -689,6 +670,25 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -830,19 +830,19 @@
     <tableColumn id="1" xr3:uid="{57F3C754-9FAF-472E-A2B4-1AB9DFBA706E}" name="Site" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{A1CB4881-A306-417B-81B6-3354AACE2C70}" name="Employé" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{E5A50B3D-7812-4D4D-96A8-0BB85A2508EF}" name="Nb Tickets" dataDxfId="17"/>
-    <tableColumn id="17" xr3:uid="{D7C7C1B6-9687-4BE2-97BF-4828693BC278}" name="Tickets Traités" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{3F284BDA-D436-47B5-8F9A-8C23D0E47051}" name="Tickets Absents" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{6EEF74A1-EFCC-4623-A5ED-2BAE6607C8CF}" name="Traités      &lt; 1mn" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{3FE68328-729A-4AE2-964F-401135185DCC}" name="Sans Affectation" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{A2A551C3-C438-4D40-ADCE-0725B93240A9}" name="Nb.Absents /Nb.Tickets%" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{E0E50A1B-E677-4FCC-A5C8-962631273722}" name="Traités&lt;1mn/Nb.Tickets%" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{728CD440-DCFA-4AEB-A5D2-870C51EE4F81}" name="Sans affect. /Nb.Tickets%" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{FB48F20C-0BFB-493B-9C59-33746FF22ED9}" name="Moyenne attente(mm:ss)" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{1FCC4EBA-467E-4793-AF7E-93F422C68297}" name="&gt; Cible attente" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{6493C770-96E2-482D-B6CF-B5F58504399A}" name="(%) Cible attente" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{28D885A7-4297-4957-A1BA-F0FC6580C35A}" name="Moyenne traitement (mm:ss)" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{E09E43EB-7BE6-4C7F-B6FA-F0BA583E0300}" name="&gt; Cible traitement" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{DFEC17F6-C8FA-45BC-8C7A-FE7AB8061B17}" name="(%) Cible traitement" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{D7C7C1B6-9687-4BE2-97BF-4828693BC278}" name="Tickets Traités" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{3F284BDA-D436-47B5-8F9A-8C23D0E47051}" name="Tickets Absents" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{6EEF74A1-EFCC-4623-A5ED-2BAE6607C8CF}" name="Traités      &lt; 1mn" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{3FE68328-729A-4AE2-964F-401135185DCC}" name="Sans Affectation" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{A2A551C3-C438-4D40-ADCE-0725B93240A9}" name="Nb.Absents /Nb.Tickets%" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{E0E50A1B-E677-4FCC-A5C8-962631273722}" name="Traités&lt;1mn/Nb.Tickets%" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{728CD440-DCFA-4AEB-A5D2-870C51EE4F81}" name="Sans affect. /Nb.Tickets%" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{FB48F20C-0BFB-493B-9C59-33746FF22ED9}" name="Moyenne attente(seconde)" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{1FCC4EBA-467E-4793-AF7E-93F422C68297}" name="&gt; Cible attente" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{6493C770-96E2-482D-B6CF-B5F58504399A}" name="(%) Cible attente" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{28D885A7-4297-4957-A1BA-F0FC6580C35A}" name="Moyenne traitement (seconde)" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{E09E43EB-7BE6-4C7F-B6FA-F0BA583E0300}" name="&gt; Cible traitement" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{DFEC17F6-C8FA-45BC-8C7A-FE7AB8061B17}" name="(%) Cible traitement" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1062,10 +1062,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T300"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E19" sqref="E19"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7:Q7"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1075,7 @@
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="5" width="16.21875" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
     <col min="8" max="8" width="10.21875" customWidth="1"/>
     <col min="9" max="9" width="13.109375" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
@@ -1094,7 +1094,7 @@
   <sheetData>
     <row r="1" spans="2:20" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -1122,57 +1122,57 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="O4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="T4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="11"/>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="6" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="11"/>
@@ -1220,52 +1220,52 @@
     </row>
     <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="J7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="N7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="Q7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S7" s="2">
         <v>1255658</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="11"/>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="9" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="13"/>
@@ -6576,7 +6576,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:Q1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1 B7:C7 B2:Q6 B8:Q1048576">
+  <conditionalFormatting sqref="B1 B2:Q6 B7:C7 B8:Q1048576">
     <cfRule type="expression" dxfId="3" priority="9">
       <formula>$C1="Totale"</formula>
     </cfRule>
@@ -6584,7 +6584,7 @@
       <formula>$C1="Sous-Totale"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7 D7:I7 K7:O7">
+  <conditionalFormatting sqref="D7:I7 K7:O7 Q7">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$B$5:$B$300="Totale"</formula>
     </cfRule>
